--- a/Doc/ScheCandis.xlsx
+++ b/Doc/ScheCandis.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webapps\FE\ScheCandis\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E419DC-8E61-4EF6-889C-63439C627816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B9E0B3-5425-4959-85CC-6D40C4176FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19995" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38E9760A-799F-4B99-93F5-5632FFA84A1F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38E9760A-799F-4B99-93F5-5632FFA84A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>data</t>
     <phoneticPr fontId="18"/>
@@ -122,12 +123,27 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>&lt;script src='https://code.jquery.com/jquery-3.7.1.min.js' integrity='sha256-/JqT3SQfawRcv/BIHPThkBvs0OEvtFFmqPF/lYI/Cxo=' crossorigin='anonymous'&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://code.jquery.com/ui/1.14.0/jquery-ui.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="https://code.jquery.com/ui/1.14.0/themes/base/jquery-ui.css"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script src='https://cdn.jsdelivr.net/npm/fullcalendar@5.5.0/main.min.js'&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link rel='stylesheet' href='https://cdn.jsdelivr.net/npm/fullcalendar@5.5.0/main.min.css'&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +302,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="33">
@@ -713,8 +735,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1120,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1284,4 +1309,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9A8039-79DD-40C7-8BE6-5B676492D5F6}">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>